--- a/Database.xlsx
+++ b/Database.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,6 +625,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A36EB700820ACB4E8AC893E98B7FE0CA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ffd4497b9b44ede9979cc4a4c5e3daee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="009c13d6-4833-41c0-bfcf-a5545f0faff9" xmlns:ns4="0d9c8f2f-76ec-4aa7-aa7c-652a6fe10f8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d1c6b74d28d1a14f15b826cea3ed23e" ns3:_="" ns4:_="">
     <xsd:import namespace="009c13d6-4833-41c0-bfcf-a5545f0faff9"/>
@@ -847,22 +862,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58A1EC8-68B3-432F-8A91-5D1042C1F6A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{622CA14D-9E3D-4B61-AA37-CE4B504729AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78040CDA-C70D-46E6-84B9-21054CA65BA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -879,21 +896,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{622CA14D-9E3D-4B61-AA37-CE4B504729AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C58A1EC8-68B3-432F-8A91-5D1042C1F6A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>